--- a/MpAndMaxReport.xlsx
+++ b/MpAndMaxReport.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="272">
   <si>
     <t>Location</t>
   </si>
@@ -627,13 +627,220 @@
     <t>iPad Pro 10.5</t>
   </si>
   <si>
-    <t>BRIAN LEONARD</t>
-  </si>
-  <si>
     <t>sub-foreman</t>
   </si>
   <si>
     <t>iPad 3</t>
+  </si>
+  <si>
+    <t>IPAD2 WI-FI 3G 32GB BLACK</t>
+  </si>
+  <si>
+    <t>JOSEPH LACAYO</t>
+  </si>
+  <si>
+    <t>foreman</t>
+  </si>
+  <si>
+    <t>Victor Devirgilio</t>
+  </si>
+  <si>
+    <t>Shop Steward</t>
+  </si>
+  <si>
+    <t>Apple iPad 32GB</t>
+  </si>
+  <si>
+    <t>Henry Posada</t>
+  </si>
+  <si>
+    <t>WILLIAM QUINONES</t>
+  </si>
+  <si>
+    <t>Dennis Nelson</t>
+  </si>
+  <si>
+    <t>David Nelson</t>
+  </si>
+  <si>
+    <t>ERIC SAUTER</t>
+  </si>
+  <si>
+    <t>IPAD AIR2 64GB SPACE GRAY</t>
+  </si>
+  <si>
+    <t>ANTHONY CICCHETTI</t>
+  </si>
+  <si>
+    <t>FSE - HUDSON YDS / PLATFORM</t>
+  </si>
+  <si>
+    <t>James Annunziata</t>
+  </si>
+  <si>
+    <t>Journeyman</t>
+  </si>
+  <si>
+    <t>FSE - ESA-Tunnel</t>
+  </si>
+  <si>
+    <t>THOMAS NANI</t>
+  </si>
+  <si>
+    <t>ARELIS GARCIA</t>
+  </si>
+  <si>
+    <t>journey person</t>
+  </si>
+  <si>
+    <t>MICHAEL FELIPE</t>
+  </si>
+  <si>
+    <t>IPAD RETINA DISPLAY 64GB BLACK</t>
+  </si>
+  <si>
+    <t>WILLIAM LOBUR</t>
+  </si>
+  <si>
+    <t>HUGH BOYLE</t>
+  </si>
+  <si>
+    <t>610 Lexington Avenue 10438400</t>
+  </si>
+  <si>
+    <t>IPAD RETINA DISPLAY 32GB WHITE</t>
+  </si>
+  <si>
+    <t>KURT SCHMIDT</t>
+  </si>
+  <si>
+    <t>FSE - 199 Churc</t>
+  </si>
+  <si>
+    <t>THOMAS CARPENITO</t>
+  </si>
+  <si>
+    <t>WILLIAM HILLARIS</t>
+  </si>
+  <si>
+    <t>FSE - ESA-B11 Yard</t>
+  </si>
+  <si>
+    <t>JOHN BONDS</t>
+  </si>
+  <si>
+    <t>ESA -CS179 - Comm Work</t>
+  </si>
+  <si>
+    <t>GREG TULLEY</t>
+  </si>
+  <si>
+    <t>CHRISTOPHER YANY</t>
+  </si>
+  <si>
+    <t>ESA - Vernon 10275200</t>
+  </si>
+  <si>
+    <t>FSE - ESA - Roosevelt</t>
+  </si>
+  <si>
+    <t>ANTHONY NATELLI</t>
+  </si>
+  <si>
+    <t>FSE - 610 Lexington Avenue (b/w E. 53rd &amp; E. 52nd)</t>
+  </si>
+  <si>
+    <t>CHUANG YING MO</t>
+  </si>
+  <si>
+    <t>FSE - 22nd Street Continuum</t>
+  </si>
+  <si>
+    <t>JAMES VITA</t>
+  </si>
+  <si>
+    <t>MARIUSZ BETCHER</t>
+  </si>
+  <si>
+    <t>KENNETH SEXTON</t>
+  </si>
+  <si>
+    <t>BRIAN FOLEY</t>
+  </si>
+  <si>
+    <t>IPAD RETINA 16GB BLACK</t>
+  </si>
+  <si>
+    <t>GREGORY ZOUVELOS</t>
+  </si>
+  <si>
+    <t>FSE - ESA/CQ32/Tunnels</t>
+  </si>
+  <si>
+    <t>Joseph Tumscitz</t>
+  </si>
+  <si>
+    <t>Electrician Journeyman</t>
+  </si>
+  <si>
+    <t>Michael O'Connell</t>
+  </si>
+  <si>
+    <t>Paul Vales</t>
+  </si>
+  <si>
+    <t>ROBERT GREISS</t>
+  </si>
+  <si>
+    <t>FSE - Riverside Bldg 2</t>
+  </si>
+  <si>
+    <t>Rosario Laduca</t>
+  </si>
+  <si>
+    <t>DOMENIC MANGANIELLO</t>
+  </si>
+  <si>
+    <t>CARMINE ADISANO</t>
+  </si>
+  <si>
+    <t>IPAD RETINA DISPLAY 32GB BLACK</t>
+  </si>
+  <si>
+    <t>iPad Pro 128GB Gray</t>
+  </si>
+  <si>
+    <t>iPad Pro 9.7</t>
+  </si>
+  <si>
+    <t>Scott Gordon</t>
+  </si>
+  <si>
+    <t>electrician</t>
+  </si>
+  <si>
+    <t>DAVID BENJAMIN</t>
+  </si>
+  <si>
+    <t>PETER VACCARELLI</t>
+  </si>
+  <si>
+    <t>MTA Maintenance / 2 Broadway</t>
+  </si>
+  <si>
+    <t>FSE - Rikers Island</t>
+  </si>
+  <si>
+    <t>EUGENE MCGRATH</t>
+  </si>
+  <si>
+    <t>RICHARD AMABILE</t>
+  </si>
+  <si>
+    <t>JOHN SARCONA</t>
+  </si>
+  <si>
+    <t>iPad Air 16GB Silver</t>
   </si>
 </sst>
 </file>
@@ -731,11 +938,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,24 +954,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,89 +1256,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="J178" sqref="J178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="12"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="35" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="8" max="8" width="42" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="G4" s="11" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1138,10 +1346,10 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7" t="s">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1149,7 +1357,7 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
@@ -1160,7 +1368,7 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J8" t="s">
@@ -1171,16 +1379,16 @@
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1188,16 +1396,16 @@
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1216,7 +1424,7 @@
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J12" t="s">
@@ -1227,10 +1435,10 @@
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1238,13 +1446,13 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="J14" t="s">
@@ -1255,7 +1463,7 @@
       <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J15" t="s">
@@ -1266,10 +1474,10 @@
       <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7" t="s">
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1277,10 +1485,10 @@
       <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1288,13 +1496,13 @@
       <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="D18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>48</v>
       </c>
       <c r="I18" t="s">
@@ -1305,10 +1513,10 @@
       <c r="A19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1316,7 +1524,7 @@
       <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J20" t="s">
@@ -1330,20 +1538,20 @@
       <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G21" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="10"/>
       <c r="J21" t="s">
         <v>59</v>
       </c>
@@ -1363,16 +1571,16 @@
       <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="13" t="s">
+      <c r="D23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1380,7 +1588,7 @@
       <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J24" t="s">
@@ -1391,7 +1599,7 @@
       <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J25" t="s">
@@ -1402,7 +1610,7 @@
       <c r="A26" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J26" t="s">
@@ -1413,7 +1621,7 @@
       <c r="A27" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J27" t="s">
@@ -1424,13 +1632,13 @@
       <c r="A28" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="10" t="s">
         <v>68</v>
       </c>
       <c r="J28" t="s">
@@ -1441,16 +1649,16 @@
       <c r="A29" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1461,7 +1669,7 @@
       <c r="B30" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>73</v>
       </c>
       <c r="G30" t="s">
@@ -1475,16 +1683,16 @@
       <c r="A31" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="13" t="s">
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1492,16 +1700,16 @@
       <c r="A32" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="13" t="s">
+      <c r="D32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1509,10 +1717,10 @@
       <c r="A33" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="13" t="s">
+      <c r="D33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1520,10 +1728,10 @@
       <c r="A34" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1531,7 +1739,7 @@
       <c r="A35" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>82</v>
       </c>
       <c r="J35" t="s">
@@ -1542,10 +1750,10 @@
       <c r="A36" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="13" t="s">
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1553,7 +1761,7 @@
       <c r="A37" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J37" t="s">
@@ -1564,10 +1772,10 @@
       <c r="A38" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1575,16 +1783,16 @@
       <c r="A39" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H39" t="s">
         <v>90</v>
       </c>
-      <c r="I39" s="13"/>
+      <c r="I39" s="10"/>
       <c r="J39" t="s">
         <v>33</v>
       </c>
@@ -1593,10 +1801,10 @@
       <c r="A40" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1604,7 +1812,7 @@
       <c r="A41" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>82</v>
       </c>
       <c r="J41" t="s">
@@ -1615,10 +1823,10 @@
       <c r="A42" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1626,10 +1834,10 @@
       <c r="A43" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1637,7 +1845,7 @@
       <c r="A44" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>82</v>
       </c>
       <c r="J44" t="s">
@@ -1648,13 +1856,13 @@
       <c r="A45" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="13" t="s">
+      <c r="D45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>99</v>
       </c>
       <c r="I45" t="s">
@@ -1665,10 +1873,10 @@
       <c r="A46" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1676,13 +1884,13 @@
       <c r="A47" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="13" t="s">
+      <c r="D47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="10" t="s">
         <v>95</v>
       </c>
       <c r="I47" t="s">
@@ -1693,13 +1901,13 @@
       <c r="A48" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="10" t="s">
         <v>104</v>
       </c>
       <c r="J48" t="s">
@@ -1710,7 +1918,7 @@
       <c r="A49" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>82</v>
       </c>
       <c r="J49" t="s">
@@ -1721,7 +1929,7 @@
       <c r="A50" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>107</v>
       </c>
       <c r="J50" t="s">
@@ -1732,7 +1940,7 @@
       <c r="A51" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>82</v>
       </c>
       <c r="J51" t="s">
@@ -1743,7 +1951,7 @@
       <c r="A52" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J52" t="s">
@@ -1754,7 +1962,7 @@
       <c r="A53" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>40</v>
       </c>
       <c r="J53" t="s">
@@ -1765,10 +1973,10 @@
       <c r="A54" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="10" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1776,10 +1984,10 @@
       <c r="A55" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H55" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1787,10 +1995,10 @@
       <c r="A56" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H56" s="13" t="s">
+      <c r="H56" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1798,7 +2006,7 @@
       <c r="A57" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J57" t="s">
@@ -1809,7 +2017,7 @@
       <c r="A58" t="s">
         <v>125</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>126</v>
       </c>
       <c r="J58" t="s">
@@ -1820,13 +2028,13 @@
       <c r="A59" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H59" s="13" t="s">
+      <c r="D59" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="10" t="s">
         <v>128</v>
       </c>
       <c r="I59" t="s">
@@ -1837,10 +2045,10 @@
       <c r="A60" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="10" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1848,7 +2056,7 @@
       <c r="A61" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J61" t="s">
@@ -1859,13 +2067,13 @@
       <c r="A62" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H62" s="13" t="s">
+      <c r="H62" s="10" t="s">
         <v>75</v>
       </c>
       <c r="J62" t="s">
@@ -1876,10 +2084,10 @@
       <c r="A63" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="H63" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1887,7 +2095,7 @@
       <c r="A64" t="s">
         <v>135</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I64" t="s">
@@ -1898,10 +2106,10 @@
       <c r="A65" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H65" s="13" t="s">
+      <c r="H65" s="10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1909,7 +2117,7 @@
       <c r="A66" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J66" t="s">
@@ -1920,13 +2128,13 @@
       <c r="A67" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H67" s="13" t="s">
+      <c r="D67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="10" t="s">
         <v>75</v>
       </c>
       <c r="I67" t="s">
@@ -1937,10 +2145,10 @@
       <c r="A68" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H68" s="13" t="s">
+      <c r="H68" s="10" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1948,7 +2156,7 @@
       <c r="A69" t="s">
         <v>142</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J69" t="s">
@@ -1959,10 +2167,10 @@
       <c r="A70" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I70" s="13" t="s">
+      <c r="I70" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1970,10 +2178,10 @@
       <c r="A71" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="H71" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1981,10 +2189,10 @@
       <c r="A72" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H72" s="13" t="s">
+      <c r="H72" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1992,10 +2200,10 @@
       <c r="A73" t="s">
         <v>147</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I73" s="13" t="s">
+      <c r="D73" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I73" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2003,13 +2211,13 @@
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="I74" s="10" t="s">
         <v>42</v>
       </c>
       <c r="J74" t="s">
@@ -2020,7 +2228,7 @@
       <c r="A75" t="s">
         <v>149</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="5" t="s">
         <v>150</v>
       </c>
       <c r="J75" t="s">
@@ -2031,7 +2239,7 @@
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="5" t="s">
         <v>38</v>
       </c>
       <c r="J76" t="s">
@@ -2042,7 +2250,7 @@
       <c r="A77" t="s">
         <v>153</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J77" t="s">
@@ -2053,7 +2261,7 @@
       <c r="A78" t="s">
         <v>154</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J78" t="s">
@@ -2064,10 +2272,10 @@
       <c r="A79" t="s">
         <v>155</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H79" s="13" t="s">
+      <c r="H79" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2075,10 +2283,10 @@
       <c r="A80" t="s">
         <v>156</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H80" s="13" t="s">
+      <c r="H80" s="10" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2086,16 +2294,16 @@
       <c r="A81" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H81" s="13" t="s">
+      <c r="H81" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I81" s="13" t="s">
+      <c r="I81" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2106,7 +2314,7 @@
       <c r="B82" t="s">
         <v>160</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="5" t="s">
         <v>159</v>
       </c>
       <c r="G82" t="s">
@@ -2117,7 +2325,7 @@
       <c r="A83" t="s">
         <v>161</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="5" t="s">
         <v>162</v>
       </c>
       <c r="J83" t="s">
@@ -2128,7 +2336,7 @@
       <c r="A84" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="5" t="s">
         <v>150</v>
       </c>
       <c r="J84" t="s">
@@ -2139,10 +2347,10 @@
       <c r="A85" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H85" s="13" t="s">
+      <c r="H85" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2150,7 +2358,7 @@
       <c r="A86" t="s">
         <v>167</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="5" t="s">
         <v>168</v>
       </c>
       <c r="J86" t="s">
@@ -2161,7 +2369,7 @@
       <c r="A87" t="s">
         <v>170</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="5" t="s">
         <v>171</v>
       </c>
       <c r="J87" t="s">
@@ -2172,10 +2380,10 @@
       <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H88" s="13" t="s">
+      <c r="H88" s="10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2183,10 +2391,10 @@
       <c r="A89" t="s">
         <v>173</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="13" t="s">
+      <c r="D89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2194,10 +2402,10 @@
       <c r="A90" t="s">
         <v>174</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H90" s="13" t="s">
+      <c r="H90" s="10" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2205,7 +2413,7 @@
       <c r="A91" t="s">
         <v>175</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I91" t="s">
@@ -2216,7 +2424,7 @@
       <c r="A92" t="s">
         <v>108</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="5" t="s">
         <v>176</v>
       </c>
       <c r="J92" t="s">
@@ -2227,7 +2435,7 @@
       <c r="A93" t="s">
         <v>178</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J93" t="s">
@@ -2238,10 +2446,10 @@
       <c r="A94" t="s">
         <v>179</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="13" t="s">
+      <c r="D94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2249,10 +2457,10 @@
       <c r="A95" t="s">
         <v>180</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H95" s="13" t="s">
+      <c r="H95" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2260,7 +2468,7 @@
       <c r="A96" t="s">
         <v>181</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J96" t="s">
@@ -2271,10 +2479,10 @@
       <c r="A97" t="s">
         <v>182</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I97" s="13" t="s">
+      <c r="I97" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2282,16 +2490,16 @@
       <c r="A98" t="s">
         <v>183</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H98" s="13" t="s">
+      <c r="D98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I98" s="13" t="s">
+      <c r="I98" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2299,16 +2507,16 @@
       <c r="A99" t="s">
         <v>184</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="H99" s="13" t="s">
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="H99" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I99" s="13" t="s">
+      <c r="I99" s="10" t="s">
         <v>42</v>
       </c>
       <c r="J99" t="s">
@@ -2319,7 +2527,7 @@
       <c r="A100" t="s">
         <v>187</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J100" t="s">
@@ -2330,7 +2538,7 @@
       <c r="A101" t="s">
         <v>132</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="5" t="s">
         <v>188</v>
       </c>
       <c r="J101" t="s">
@@ -2341,16 +2549,16 @@
       <c r="A102" t="s">
         <v>189</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H102" s="13" t="s">
+      <c r="D102" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H102" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I102" s="13" t="s">
+      <c r="I102" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2358,7 +2566,7 @@
       <c r="A103" t="s">
         <v>191</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="5" t="s">
         <v>192</v>
       </c>
       <c r="J103" t="s">
@@ -2369,10 +2577,10 @@
       <c r="A104" t="s">
         <v>93</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H104" s="13" t="s">
+      <c r="H104" s="10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2380,13 +2588,13 @@
       <c r="A105" t="s">
         <v>193</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H105" s="13" t="s">
+      <c r="D105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="10" t="s">
         <v>194</v>
       </c>
       <c r="I105" t="s">
@@ -2397,13 +2605,13 @@
       <c r="A106" t="s">
         <v>69</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H106" s="13" t="s">
+      <c r="H106" s="10" t="s">
         <v>70</v>
       </c>
       <c r="I106" t="s">
@@ -2414,7 +2622,7 @@
       <c r="A107" t="s">
         <v>173</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I107" t="s">
@@ -2425,13 +2633,13 @@
       <c r="A108" t="s">
         <v>195</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D108" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H108" s="13" t="s">
+      <c r="D108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" s="10" t="s">
         <v>196</v>
       </c>
       <c r="I108" t="s">
@@ -2442,13 +2650,13 @@
       <c r="A109" t="s">
         <v>197</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H109" s="13" t="s">
+      <c r="D109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="10" t="s">
         <v>58</v>
       </c>
       <c r="I109" t="s">
@@ -2459,7 +2667,7 @@
       <c r="A110" t="s">
         <v>149</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J110" t="s">
@@ -2470,13 +2678,13 @@
       <c r="A111" t="s">
         <v>92</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H111" s="13" t="s">
+      <c r="H111" s="10" t="s">
         <v>80</v>
       </c>
       <c r="J111" t="s">
@@ -2487,7 +2695,7 @@
       <c r="A112" t="s">
         <v>198</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="5" t="s">
         <v>176</v>
       </c>
       <c r="J112" t="s">
@@ -2498,7 +2706,7 @@
       <c r="A113" t="s">
         <v>96</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="5" t="s">
         <v>176</v>
       </c>
       <c r="J113" t="s">
@@ -2509,28 +2717,951 @@
       <c r="A114" t="s">
         <v>62</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="6" t="s">
+      <c r="D114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="H114" s="13" t="s">
+      <c r="H114" s="10" t="s">
         <v>37</v>
       </c>
       <c r="I114" t="s">
+        <v>200</v>
+      </c>
+      <c r="J114" t="s">
         <v>201</v>
-      </c>
-      <c r="J114" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>200</v>
+        <v>41</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>60</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>203</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I117" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="J118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>208</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>210</v>
+      </c>
+      <c r="B120" t="s">
+        <v>211</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" t="s">
+        <v>210</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>212</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I121" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>53</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>214</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I123" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>216</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>147</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I125" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>219</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>220</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I127" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>222</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>81</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>224</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I130" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J130" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>225</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H131" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I131" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>209</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J132" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>182</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I133" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H134" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>214</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H135" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I135" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>228</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>230</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I137" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>231</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H138" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>233</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H139" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>235</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J140" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>193</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H142" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I142" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J142" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>195</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I143" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>135</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I144" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>236</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H145" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I145" t="s">
+        <v>42</v>
+      </c>
+      <c r="J145" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>76</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E146" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I146" t="s">
+        <v>57</v>
+      </c>
+      <c r="J146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>233</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H147" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>143</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I148" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>239</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H149" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I149" t="s">
+        <v>42</v>
+      </c>
+      <c r="J149" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>102</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H150" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>230</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>241</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H152" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>243</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I153" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>244</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J154" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>245</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>246</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="J156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>248</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H157" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="J157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>203</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J158" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>250</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I159" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>239</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H160" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="I160" t="s">
+        <v>42</v>
+      </c>
+      <c r="J160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>252</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>123</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H162" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>253</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>220</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H164" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I164" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>254</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="I165" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>256</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I166" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>257</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J167" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>258</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D168" s="10"/>
+      <c r="H168" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>165</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>51</v>
+      </c>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="J170" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>34</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H171" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>262</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I172" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>264</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>265</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H174" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>268</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>269</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I176" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>270</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J177" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>39</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J178" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2562,11 +3693,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2583,16 +3714,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <v>43280</v>
       </c>
     </row>
@@ -2603,10 +3734,10 @@
       <c r="B5" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>43281</v>
       </c>
     </row>

--- a/MpAndMaxReport.xlsx
+++ b/MpAndMaxReport.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="268">
   <si>
     <t>Location</t>
   </si>
@@ -105,9 +105,6 @@
     <t>HENRY POSADA</t>
   </si>
   <si>
-    <t>Henry o Posada</t>
-  </si>
-  <si>
     <t>ESA/CQ32/TUNNELS</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>ROBERT AMABILE</t>
   </si>
   <si>
-    <t>Robert v Amabile</t>
-  </si>
-  <si>
     <t>FRANK CONDON</t>
   </si>
   <si>
@@ -189,9 +183,6 @@
     <t>KENNETH PREISEL</t>
   </si>
   <si>
-    <t>Kenneth r Preisel</t>
-  </si>
-  <si>
     <t>Fare Collection  10705100</t>
   </si>
   <si>
@@ -210,9 +201,6 @@
     <t>WILLIAM CAPRI</t>
   </si>
   <si>
-    <t>William a Capri</t>
-  </si>
-  <si>
     <t>MICHAEL LACHANCE</t>
   </si>
   <si>
@@ -243,9 +231,6 @@
     <t>Steve Petrillo</t>
   </si>
   <si>
-    <t>Steven Petrillo</t>
-  </si>
-  <si>
     <t>iPad 5th Gen 32GB Gray</t>
   </si>
   <si>
@@ -507,9 +492,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Frederick Greco</t>
-  </si>
-  <si>
     <t>VICTOR DEVIRGILIO</t>
   </si>
   <si>
@@ -585,9 +567,6 @@
     <t>iPhone4</t>
   </si>
   <si>
-    <t>Missing</t>
-  </si>
-  <si>
     <t>PATRICK BROWN</t>
   </si>
   <si>
@@ -660,9 +639,6 @@
     <t>Dennis Nelson</t>
   </si>
   <si>
-    <t>David Nelson</t>
-  </si>
-  <si>
     <t>ERIC SAUTER</t>
   </si>
   <si>
@@ -841,6 +817,18 @@
   </si>
   <si>
     <t>iPad Air 16GB Silver</t>
+  </si>
+  <si>
+    <t>IPAD AIR2 64GB SILVER</t>
+  </si>
+  <si>
+    <t>ROBERT LANGAN</t>
+  </si>
+  <si>
+    <t>PATRICK JOHN ESPOSITO</t>
+  </si>
+  <si>
+    <t>Device Done</t>
   </si>
 </sst>
 </file>
@@ -888,7 +876,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,6 +913,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -938,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -963,19 +957,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1256,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J178"/>
+  <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="J178" sqref="J178"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183:XFD183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,2389 +1284,2461 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="G4" s="14" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="G5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" s="18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="H14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>42</v>
+      <c r="J16" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="C22" s="18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="E22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" t="s">
-        <v>60</v>
+      <c r="I22" s="20"/>
+      <c r="J22" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>42</v>
+      <c r="J29" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>42</v>
+        <v>74</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>58</v>
+        <v>78</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" t="s">
-        <v>90</v>
-      </c>
-      <c r="I39" s="10"/>
-      <c r="J39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>77</v>
+        <v>52</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J41" t="s">
-        <v>59</v>
+        <v>84</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I45" t="s">
-        <v>42</v>
+        <v>88</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>44</v>
+        <v>93</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>68</v>
+        <v>94</v>
+      </c>
+      <c r="I46" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I47" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H48" s="10" t="s">
+      <c r="J51" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="J48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="E52" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J52" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>75</v>
+      <c r="E53" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>58</v>
+        <v>26</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="E58" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J59" s="18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H59" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="I59" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>130</v>
+        <v>89</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="I60" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="10" t="s">
+      <c r="E62" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J63" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I64" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>136</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>95</v>
+        <v>130</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>137</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I67" t="s">
-        <v>42</v>
+        <v>131</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>140</v>
+        <v>42</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>141</v>
+        <v>70</v>
+      </c>
+      <c r="I68" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>142</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J69" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>8</v>
+        <v>134</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J70" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>58</v>
+        <v>138</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I73" s="10" t="s">
-        <v>24</v>
+      <c r="H73" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J76" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J77" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E74" s="5" t="s">
+      <c r="E78" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I74" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J74" t="s">
+      <c r="J78" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="79" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J75" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>153</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J77" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>154</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J78" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>155</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>104</v>
+      <c r="E79" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J79" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I81" s="10" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>158</v>
-      </c>
-      <c r="B82" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G82" t="s">
-        <v>158</v>
+        <v>22</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>161</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="J83" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>164</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J84" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J84" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J85" s="18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>165</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>167</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J86" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>170</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="J87" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>88</v>
+        <v>159</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J87" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J88" s="18" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>173</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="10" t="s">
-        <v>24</v>
+        <v>81</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>174</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>75</v>
+        <v>167</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>175</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I91" t="s">
-        <v>8</v>
+        <v>168</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>108</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="J92" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>178</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J93" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>179</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="10" t="s">
-        <v>42</v>
+        <v>169</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J93" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J94" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>180</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H95" s="10" t="s">
-        <v>37</v>
+        <v>173</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>181</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J96" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>182</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I97" s="10" t="s">
-        <v>42</v>
+        <v>174</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J97" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>183</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H98" s="10" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>184</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
+        <v>177</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="H99" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J99" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>187</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J100" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>132</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="J101" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="H100" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I100" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J100" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J101" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="J102" s="18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>189</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>191</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J103" t="s">
+        <v>182</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J104" s="18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>93</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I105" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="I106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>173</v>
+        <v>65</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I107" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>195</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H108" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="I108" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="I109" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>149</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J110" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>92</v>
-      </c>
-      <c r="C111" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I110" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J111" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C112" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H111" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J111" t="s">
+      <c r="E112" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H112" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J112" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>198</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="J112" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>96</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="J113" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>62</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I114" t="s">
-        <v>200</v>
-      </c>
-      <c r="J114" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>41</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I115" s="10" t="s">
-        <v>42</v>
+    <row r="113" spans="1:10" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J113" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J114" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="H115" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I115" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="J115" s="18" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>60</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J116" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J117" s="18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>203</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I117" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>205</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="D118" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I118" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="J118" t="s">
+      <c r="E119" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H119" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I119" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="J119" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>208</v>
-      </c>
-      <c r="C119" s="5" t="s">
+    <row r="120" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E119" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H119" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J119" t="s">
+      <c r="J120" s="18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>210</v>
-      </c>
-      <c r="B120" t="s">
-        <v>211</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120" t="s">
-        <v>210</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I120" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I121" s="10" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="I121" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="C122" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H123" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E122" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H122" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J122" t="s">
+      <c r="J123" s="18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>214</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H123" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="I123" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>217</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="C125" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I125" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E126" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H125" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="I125" s="10" t="s">
+      <c r="H126" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="I126" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J126" s="18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>219</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H126" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I127" s="18" t="s">
-        <v>221</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>222</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J128" t="s">
+        <v>212</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I128" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="J129" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>81</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="J129" t="s">
+    <row r="130" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J130" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>224</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H130" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I130" s="10" t="s">
+    <row r="131" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I131" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J130" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>225</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I131" t="s">
-        <v>204</v>
+      <c r="J131" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>209</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J132" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>182</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I133" t="s">
-        <v>42</v>
+        <v>217</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I132" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E133" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J133" s="18" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>133</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H134" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J134" t="s">
+        <v>176</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I134" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="H135" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J135" s="18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>214</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H135" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="I135" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>229</v>
+        <v>207</v>
+      </c>
+      <c r="I136" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>230</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I137" t="s">
-        <v>42</v>
+        <v>220</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>231</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H138" s="10" t="s">
-        <v>232</v>
+        <v>222</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>235</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J140" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>64</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J141" t="s">
+        <v>225</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E141" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J141" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E142" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J142" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>193</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H142" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I142" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J142" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>195</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H143" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I143" t="s">
-        <v>42</v>
+    <row r="143" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H143" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="I143" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J143" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>135</v>
+        <v>188</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="I144" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>236</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>237</v>
+        <v>130</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H145" s="10" t="s">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="I145" t="s">
-        <v>42</v>
-      </c>
-      <c r="J145" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>76</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E146" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H146" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="I146" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J146" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E147" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H146" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I146" t="s">
-        <v>57</v>
-      </c>
-      <c r="J146" t="s">
+      <c r="H147" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I147" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J147" s="18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>233</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="H147" s="10" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>143</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I148" t="s">
-        <v>42</v>
+        <v>225</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H148" s="10" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>239</v>
-      </c>
-      <c r="C149" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I149" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C150" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H149" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="I149" t="s">
-        <v>42</v>
-      </c>
-      <c r="J149" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>102</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H150" s="10" t="s">
-        <v>104</v>
+      <c r="D150" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H150" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I150" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J150" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>230</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I151" s="10" t="s">
-        <v>42</v>
+        <v>97</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H151" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>241</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H152" s="10" t="s">
-        <v>242</v>
+        <v>222</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I153" s="10" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>244</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J154" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>245</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H155" s="10" t="s">
-        <v>218</v>
+        <v>235</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I154" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="E155" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J155" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>246</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="J156" t="s">
+        <v>237</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E157" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="J157" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>248</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E157" s="5" t="s">
+    <row r="158" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E158" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H157" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="J157" t="s">
+      <c r="H158" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="J158" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>203</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" s="5" t="s">
+    <row r="159" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I159" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J158" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>250</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I159" s="10" t="s">
-        <v>251</v>
+      <c r="J159" s="18" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>242</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="H160" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="I160" t="s">
-        <v>42</v>
-      </c>
-      <c r="J160" t="s">
+      <c r="H161" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="I161" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J161" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>252</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J161" t="s">
+    <row r="162" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J162" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>123</v>
-      </c>
-      <c r="C162" s="5" t="s">
+    <row r="163" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="H163" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E162" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="H162" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J162" t="s">
+      <c r="J163" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>253</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J163" t="s">
+    <row r="164" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="E164" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J164" s="18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>220</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H164" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I164" s="10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="H165" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="I165" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="I165" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H166" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I166" s="10" t="s">
-        <v>9</v>
+        <v>247</v>
+      </c>
+      <c r="I166" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>257</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J167" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>258</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D168" s="10"/>
-      <c r="H168" s="10" t="s">
-        <v>37</v>
+        <v>248</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="I167" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E168" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J168" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>259</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D169" s="10"/>
       <c r="H169" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J169" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E170" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="H170" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J170" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>51</v>
-      </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="J170" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>34</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H171" s="10" t="s">
-        <v>35</v>
+    <row r="171" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E171" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="J171" s="18" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>262</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I172" t="s">
-        <v>263</v>
+        <v>32</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H172" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="I173" t="s">
-        <v>8</v>
+        <v>255</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>265</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E174" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C175" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E175" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H174" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="J174" t="s">
+      <c r="H175" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="J175" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>268</v>
-      </c>
-      <c r="E175" s="5" t="s">
+    <row r="176" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="E176" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J175" t="s">
+      <c r="J176" s="18" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>269</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I176" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>270</v>
-      </c>
-      <c r="E177" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I177" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="E178" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J178" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="J179" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="J177" t="s">
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>208</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H180" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I180" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C181" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E181" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H181" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="J181" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>39</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="J178" t="s">
-        <v>199</v>
+    <row r="182" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C182" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E182" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H182" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J182" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I183" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J183" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>265</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H184" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>240</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H185" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>266</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I186" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>257</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H187" s="10" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B100:E100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3694,34 +3763,34 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="D4" s="11">
         <v>43280</v>
@@ -3729,13 +3798,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D5" s="11">
         <v>43281</v>

--- a/MpAndMaxReport.xlsx
+++ b/MpAndMaxReport.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="280">
   <si>
     <t>Location</t>
   </si>
@@ -829,13 +829,49 @@
   </si>
   <si>
     <t>Device Done</t>
+  </si>
+  <si>
+    <t>Julio Martinez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPad 4 </t>
+  </si>
+  <si>
+    <t>(347) 572-5282</t>
+  </si>
+  <si>
+    <t>Michael Ciarcia</t>
+  </si>
+  <si>
+    <t>(347) 461-1072</t>
+  </si>
+  <si>
+    <t>RICHARD SCIARRONE</t>
+  </si>
+  <si>
+    <t>(347) 587-9005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPad Pro 10.5 </t>
+  </si>
+  <si>
+    <t>iPad Pro 10.6</t>
+  </si>
+  <si>
+    <t>(347) 510-4651</t>
+  </si>
+  <si>
+    <t>William Waszcyszak</t>
+  </si>
+  <si>
+    <t>347-957-1334</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,6 +908,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FF8E8E8E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -932,7 +980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -952,27 +1000,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1255,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A183" sqref="A183:XFD183"/>
     </sheetView>
   </sheetViews>
@@ -1284,39 +1334,39 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="12" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="G5" s="15" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="G5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -1366,14 +1416,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1411,14 +1461,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1433,31 +1483,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1511,32 +1561,32 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="18" t="s">
+      <c r="I22" s="14"/>
+      <c r="J22" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1562,64 +1612,64 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="J27" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="J29" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1640,14 +1690,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="J31" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1707,14 +1757,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1729,14 +1779,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+    <row r="38" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J38" s="18" t="s">
+      <c r="J38" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1751,21 +1801,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+    <row r="40" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="18" t="s">
+      <c r="I40" s="14"/>
+      <c r="J40" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1787,7 +1837,7 @@
       <c r="E42" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J42" s="18" t="s">
+      <c r="J42" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1813,14 +1863,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
+    <row r="45" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J45" s="18" t="s">
+      <c r="J45" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1869,75 +1919,75 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+    <row r="49" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="20" t="s">
+      <c r="H49" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J49" s="18" t="s">
+      <c r="J49" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+    <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J50" s="18" t="s">
+      <c r="J50" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+    <row r="51" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J51" s="18" t="s">
+      <c r="J51" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
+    <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="J52" s="18" t="s">
+      <c r="J52" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+    <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J53" s="18" t="s">
+      <c r="J53" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+    <row r="54" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J54" s="18" t="s">
+      <c r="J54" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1974,25 +2024,25 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
+    <row r="58" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J58" s="18" t="s">
+      <c r="J58" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
+    <row r="59" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="J59" s="18" t="s">
+      <c r="J59" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2024,31 +2074,31 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+    <row r="62" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J62" s="18" t="s">
+      <c r="J62" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
+    <row r="63" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H63" s="20" t="s">
+      <c r="H63" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="J63" s="18" t="s">
+      <c r="J63" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2085,14 +2135,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
+    <row r="67" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J67" s="18" t="s">
+      <c r="J67" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2124,14 +2174,14 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
+    <row r="70" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J70" s="18" t="s">
+      <c r="J70" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2179,64 +2229,64 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="18" t="s">
+    <row r="75" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I75" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J75" s="18" t="s">
+      <c r="I75" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
+    <row r="76" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="J76" s="18" t="s">
+      <c r="J76" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+    <row r="77" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J77" s="18" t="s">
+      <c r="J77" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
+    <row r="78" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J78" s="18" t="s">
+      <c r="J78" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
+    <row r="79" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J79" s="18" t="s">
+      <c r="J79" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2287,25 +2337,25 @@
         <v>154</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
+    <row r="84" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="J84" s="18" t="s">
+      <c r="J84" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
+    <row r="85" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="J85" s="18" t="s">
+      <c r="J85" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2320,25 +2370,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
+    <row r="87" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="E87" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="J87" s="18" t="s">
+      <c r="J87" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
+    <row r="88" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E88" s="18" t="s">
+      <c r="E88" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="J88" s="18" t="s">
+      <c r="J88" s="12" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2386,25 +2436,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="18" t="s">
+    <row r="93" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="J93" s="18" t="s">
+      <c r="J93" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
+    <row r="94" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E94" s="18" t="s">
+      <c r="E94" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J94" s="18" t="s">
+      <c r="J94" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2430,14 +2480,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
+    <row r="97" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E97" s="18" t="s">
+      <c r="E97" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J97" s="18" t="s">
+      <c r="J97" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2469,43 +2519,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
+    <row r="100" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="s">
         <v>178</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
       <c r="E100" s="21"/>
-      <c r="H100" s="20" t="s">
+      <c r="H100" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I100" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J100" s="18" t="s">
+      <c r="I100" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J100" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
+    <row r="101" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E101" s="18" t="s">
+      <c r="E101" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J101" s="18" t="s">
+      <c r="J101" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
+    <row r="102" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E102" s="18" t="s">
+      <c r="E102" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="J102" s="18" t="s">
+      <c r="J102" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2526,14 +2576,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
+    <row r="104" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E104" s="18" t="s">
+      <c r="E104" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="J104" s="18" t="s">
+      <c r="J104" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2627,76 +2677,76 @@
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
+    <row r="111" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="E111" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J111" s="18" t="s">
+      <c r="J111" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18" t="s">
+    <row r="112" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E112" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="H112" s="20" t="s">
+      <c r="H112" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="J112" s="18" t="s">
+      <c r="J112" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
+    <row r="113" spans="1:10" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E113" s="18" t="s">
+      <c r="E113" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="J113" s="18" t="s">
+      <c r="J113" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="18" t="s">
+    <row r="114" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E114" s="18" t="s">
+      <c r="E114" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="J114" s="18" t="s">
+      <c r="J114" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
+    <row r="115" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D115" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" s="18" t="s">
+      <c r="D115" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H115" s="20" t="s">
+      <c r="H115" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I115" s="18" t="s">
+      <c r="I115" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="J115" s="18" t="s">
+      <c r="J115" s="12" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2711,14 +2761,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
+    <row r="117" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E117" s="18" t="s">
+      <c r="E117" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="J117" s="18" t="s">
+      <c r="J117" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2733,43 +2783,43 @@
         <v>197</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="18" t="s">
+    <row r="119" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D119" s="18" t="s">
+      <c r="D119" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E119" s="18" t="s">
+      <c r="E119" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="H119" s="20" t="s">
+      <c r="H119" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I119" s="20" t="s">
+      <c r="I119" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="J119" s="18" t="s">
+      <c r="J119" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="18" t="s">
+    <row r="120" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E120" s="18" t="s">
+      <c r="E120" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H120" s="20" t="s">
+      <c r="H120" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J120" s="18" t="s">
+      <c r="J120" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2807,20 +2857,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="18" t="s">
+    <row r="123" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E123" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="H123" s="20" t="s">
+      <c r="H123" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J123" s="18" t="s">
+      <c r="J123" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2858,26 +2908,26 @@
         <v>209</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="18" t="s">
+    <row r="126" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D126" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E126" s="18" t="s">
+      <c r="D126" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E126" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H126" s="20" t="s">
+      <c r="H126" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="I126" s="20" t="s">
+      <c r="I126" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J126" s="18" t="s">
+      <c r="J126" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2905,52 +2955,52 @@
       <c r="H128" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I128" s="14" t="s">
+      <c r="I128" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="18" t="s">
+    <row r="129" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="E129" s="18" t="s">
+      <c r="E129" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="J129" s="18" t="s">
+      <c r="J129" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="18" t="s">
+    <row r="130" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E130" s="18" t="s">
+      <c r="E130" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="J130" s="18" t="s">
+      <c r="J130" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="18" t="s">
+    <row r="131" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C131" s="18" t="s">
+      <c r="C131" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D131" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="18" t="s">
+      <c r="D131" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H131" s="20" t="s">
+      <c r="H131" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I131" s="20" t="s">
+      <c r="I131" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J131" s="18" t="s">
+      <c r="J131" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2971,14 +3021,14 @@
         <v>197</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="18" t="s">
+    <row r="133" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E133" s="18" t="s">
+      <c r="E133" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="J133" s="18" t="s">
+      <c r="J133" s="12" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2993,20 +3043,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="18" t="s">
+    <row r="135" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E135" s="18" t="s">
+      <c r="E135" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="H135" s="20" t="s">
+      <c r="H135" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="J135" s="18" t="s">
+      <c r="J135" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3071,48 +3121,48 @@
         <v>210</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="18" t="s">
+    <row r="141" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="E141" s="18" t="s">
+      <c r="E141" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J141" s="18" t="s">
+      <c r="J141" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="18" t="s">
+    <row r="142" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E142" s="18" t="s">
+      <c r="E142" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="J142" s="18" t="s">
+      <c r="J142" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="18" t="s">
+    <row r="143" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C143" s="18" t="s">
+      <c r="C143" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D143" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" s="18" t="s">
+      <c r="D143" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H143" s="20" t="s">
+      <c r="H143" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="I143" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J143" s="18" t="s">
+      <c r="I143" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J143" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3144,49 +3194,49 @@
         <v>40</v>
       </c>
     </row>
-    <row r="146" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="18" t="s">
+    <row r="146" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C146" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="D146" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" s="18" t="s">
+      <c r="D146" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H146" s="20" t="s">
+      <c r="H146" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="I146" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J146" s="18" t="s">
+      <c r="I146" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J146" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="18" t="s">
+    <row r="147" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C147" s="18" t="s">
+      <c r="C147" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D147" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E147" s="18" t="s">
+      <c r="D147" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E147" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H147" s="20" t="s">
+      <c r="H147" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I147" s="18" t="s">
+      <c r="I147" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J147" s="18" t="s">
+      <c r="J147" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3212,26 +3262,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="18" t="s">
+    <row r="150" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D150" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" s="18" t="s">
+      <c r="D150" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H150" s="20" t="s">
+      <c r="H150" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="I150" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J150" s="18" t="s">
+      <c r="I150" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J150" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3285,14 +3335,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="18" t="s">
+    <row r="155" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E155" s="18" t="s">
+      <c r="E155" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J155" s="18" t="s">
+      <c r="J155" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3307,48 +3357,48 @@
         <v>210</v>
       </c>
     </row>
-    <row r="157" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="18" t="s">
+    <row r="157" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E157" s="18" t="s">
+      <c r="E157" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="J157" s="18" t="s">
+      <c r="J157" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="18" t="s">
+    <row r="158" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C158" s="18" t="s">
+      <c r="C158" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E158" s="18" t="s">
+      <c r="E158" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H158" s="20" t="s">
+      <c r="H158" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="J158" s="18" t="s">
+      <c r="J158" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="18" t="s">
+    <row r="159" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D159" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" s="18" t="s">
+      <c r="D159" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I159" s="18" t="s">
+      <c r="I159" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J159" s="18" t="s">
+      <c r="J159" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3363,65 +3413,65 @@
         <v>243</v>
       </c>
     </row>
-    <row r="161" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="18" t="s">
+    <row r="161" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C161" s="18" t="s">
+      <c r="C161" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D161" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E161" s="18" t="s">
+      <c r="D161" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="H161" s="20" t="s">
+      <c r="H161" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="I161" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J161" s="18" t="s">
+      <c r="I161" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J161" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="18" t="s">
+    <row r="162" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="E162" s="18" t="s">
+      <c r="E162" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J162" s="18" t="s">
+      <c r="J162" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="18" t="s">
+    <row r="163" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C163" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E163" s="18" t="s">
+      <c r="E163" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H163" s="20" t="s">
+      <c r="H163" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J163" s="18" t="s">
+      <c r="J163" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="18" t="s">
+    <row r="164" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="E164" s="18" t="s">
+      <c r="E164" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J164" s="18" t="s">
+      <c r="J164" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3476,14 +3526,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="18" t="s">
+    <row r="168" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="E168" s="18" t="s">
+      <c r="E168" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J168" s="18" t="s">
+      <c r="J168" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3499,31 +3549,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="18" t="s">
+    <row r="170" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C170" s="18" t="s">
+      <c r="C170" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E170" s="18" t="s">
+      <c r="E170" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="H170" s="20" t="s">
+      <c r="H170" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J170" s="18" t="s">
+      <c r="J170" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="18" t="s">
+    <row r="171" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E171" s="18" t="s">
+      <c r="E171" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="J171" s="18" t="s">
+      <c r="J171" s="12" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3560,31 +3610,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="18" t="s">
+    <row r="175" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C175" s="18" t="s">
+      <c r="C175" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="E175" s="18" t="s">
+      <c r="E175" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H175" s="20" t="s">
+      <c r="H175" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="J175" s="18" t="s">
+      <c r="J175" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="18" t="s">
+    <row r="176" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="E176" s="18" t="s">
+      <c r="E176" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J176" s="18" t="s">
+      <c r="J176" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3599,25 +3649,25 @@
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="18" t="s">
+    <row r="178" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="E178" s="18" t="s">
+      <c r="E178" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="J178" s="18" t="s">
+      <c r="J178" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="18" t="s">
+    <row r="179" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E179" s="18" t="s">
+      <c r="E179" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="J179" s="18" t="s">
+      <c r="J179" s="12" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3638,54 +3688,54 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="18" t="s">
+    <row r="181" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C181" s="18" t="s">
+      <c r="C181" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E181" s="18" t="s">
+      <c r="E181" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="H181" s="20" t="s">
+      <c r="H181" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="J181" s="18" t="s">
+      <c r="J181" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="18" t="s">
+    <row r="182" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C182" s="18" t="s">
+      <c r="C182" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E182" s="18" t="s">
+      <c r="E182" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="H182" s="20" t="s">
+      <c r="H182" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J182" s="18" t="s">
+      <c r="J182" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="18" t="s">
+    <row r="183" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D183" s="18" t="s">
+      <c r="D183" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E183" s="18" t="s">
+      <c r="E183" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I183" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J183" s="18" t="s">
+      <c r="I183" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J183" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3747,28 +3797,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -3782,38 +3832,112 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="16">
         <v>43280</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="16">
         <v>43281</v>
       </c>
+    </row>
+    <row r="6" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="16">
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="16">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="16">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="16">
+        <v>43300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" s="16">
+        <v>43301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MpAndMaxReport.xlsx
+++ b/MpAndMaxReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="5160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="352">
   <si>
     <t>Location</t>
   </si>
@@ -865,13 +865,262 @@
   </si>
   <si>
     <t>347-957-1334</t>
+  </si>
+  <si>
+    <t>Jules Osak</t>
+  </si>
+  <si>
+    <t>(347) 480-6334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris Piccinnini </t>
+  </si>
+  <si>
+    <t>347-306-8946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malvina Shishmanian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone 6s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Narog </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Reily </t>
+  </si>
+  <si>
+    <t>Rocco Ciccone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPad 9.7 </t>
+  </si>
+  <si>
+    <t>(347) 957-1381</t>
+  </si>
+  <si>
+    <t>(917) 578-3664</t>
+  </si>
+  <si>
+    <t>(917) 671-7930</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (917) 681-4939</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack Meersand </t>
+  </si>
+  <si>
+    <t>(917) 217-5596</t>
+  </si>
+  <si>
+    <t>Jamie Mccall</t>
+  </si>
+  <si>
+    <t>(516) 852-0795</t>
+  </si>
+  <si>
+    <t>Vaughn Upton</t>
+  </si>
+  <si>
+    <t>iPad 6th Gen</t>
+  </si>
+  <si>
+    <t>Charles Rayder</t>
+  </si>
+  <si>
+    <t>(347) 461-5950</t>
+  </si>
+  <si>
+    <t>(347) 572-4073</t>
+  </si>
+  <si>
+    <t>(347) 461-0604</t>
+  </si>
+  <si>
+    <t>(347) 203-8469</t>
+  </si>
+  <si>
+    <t>Maurice Calalang</t>
+  </si>
+  <si>
+    <t>(347) 956-1030</t>
+  </si>
+  <si>
+    <t>WILLIAM LATTIMORE</t>
+  </si>
+  <si>
+    <t>(347) 885-6420</t>
+  </si>
+  <si>
+    <t>Joe Esposito</t>
+  </si>
+  <si>
+    <t>(917) 337-1136</t>
+  </si>
+  <si>
+    <t>(347) 263-3241</t>
+  </si>
+  <si>
+    <t>CHRIS HIGGINS</t>
+  </si>
+  <si>
+    <t>(646) 460-4004</t>
+  </si>
+  <si>
+    <t>David Dagner</t>
+  </si>
+  <si>
+    <t>(929) 387-0508</t>
+  </si>
+  <si>
+    <t>Not in manpower</t>
+  </si>
+  <si>
+    <t>Brian Mayers</t>
+  </si>
+  <si>
+    <t>iPhone6s</t>
+  </si>
+  <si>
+    <t>(646) 530-1135</t>
+  </si>
+  <si>
+    <t>(646) 673-4990</t>
+  </si>
+  <si>
+    <t>JOSEPH PENNA</t>
+  </si>
+  <si>
+    <t>(347) 865-1423</t>
+  </si>
+  <si>
+    <t>EGIDIO TENCIC</t>
+  </si>
+  <si>
+    <t>(347) 551-1956</t>
+  </si>
+  <si>
+    <r>
+      <t>iPhone 6s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>BRIAN DEAHL</t>
+  </si>
+  <si>
+    <t>(917) 559-8919</t>
+  </si>
+  <si>
+    <t>Marc Islam</t>
+  </si>
+  <si>
+    <t>(347) 675-3342</t>
+  </si>
+  <si>
+    <r>
+      <t>iPad 6 9.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>(347) 563-2517</t>
+  </si>
+  <si>
+    <t>iPad Pro 12.9</t>
+  </si>
+  <si>
+    <t>(917) 567-4519</t>
+  </si>
+  <si>
+    <t>Billy Jackowski</t>
+  </si>
+  <si>
+    <t>(917) 480-0894</t>
+  </si>
+  <si>
+    <r>
+      <t>iPad Pro 9.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>(347) 374-1146</t>
+  </si>
+  <si>
+    <t>Eric Sauter</t>
+  </si>
+  <si>
+    <t>(347) 752-2564</t>
+  </si>
+  <si>
+    <t>James Cotter</t>
+  </si>
+  <si>
+    <t>iPad 6th Gen 9.7</t>
+  </si>
+  <si>
+    <t>(917) 418-8867</t>
+  </si>
+  <si>
+    <t>Brian Foley</t>
+  </si>
+  <si>
+    <t>(347) 480 0036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Cotter </t>
+  </si>
+  <si>
+    <t>(347) 306-7994</t>
+  </si>
+  <si>
+    <t>Stathis Ignatiadis</t>
+  </si>
+  <si>
+    <t>(347) 853-0248</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,19 +1148,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF1F497D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF8E8E8E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Tahoma"/>
@@ -923,8 +1159,50 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -967,6 +1245,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -977,10 +1267,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1004,12 +1295,39 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1022,9 +1340,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1305,7 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A182" workbookViewId="0">
       <selection activeCell="A183" sqref="A183:XFD183"/>
     </sheetView>
   </sheetViews>
@@ -1339,34 +1657,34 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="G5" s="19" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="G5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -2523,10 +2841,10 @@
       <c r="A100" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="21"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="40"/>
       <c r="H100" s="14" t="s">
         <v>70</v>
       </c>
@@ -3797,10 +4115,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3811,133 +4129,613 @@
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" s="27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="6" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C6" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D6" s="16">
         <v>43280</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="7" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D7" s="16">
         <v>43281</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="8" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D8" s="16">
         <v>43292</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="9" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D9" s="16">
         <v>43298</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="10" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D10" s="16">
         <v>43299</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="11" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D11" s="16">
         <v>43300</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+    <row r="12" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D12" s="16">
         <v>43301</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="12"/>
+    <row r="13" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" s="24">
+        <v>43311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D14" s="16">
+        <v>43307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="19">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D16" s="19">
+        <v>43307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="19">
+        <v>43312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="16">
+        <v>43312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D19" s="19">
+        <v>43314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" s="19">
+        <v>43314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" s="19">
+        <v>43315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" s="16">
+        <v>43318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" s="16">
+        <v>43318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" s="16">
+        <v>43318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" s="16">
+        <v>43318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" s="16">
+        <v>43321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D27" s="16">
+        <v>43329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="D28" s="19">
+        <v>43339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" s="19">
+        <v>43339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30" s="34">
+        <v>43340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="16">
+        <v>43347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D32" s="16">
+        <v>43347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="D33" s="24">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="D34" s="19">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D35" s="16">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="D36" s="16">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="D37" s="19">
+        <v>43362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="D38" s="16">
+        <v>43362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="D39" s="16">
+        <v>43363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D40" s="16">
+        <v>43363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D41" s="16">
+        <v>43369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D42" s="16">
+        <v>43370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="37"/>
+    </row>
+    <row r="44" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D44" s="16">
+        <v>43370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D45" s="16">
+        <v>43370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D46" s="16">
+        <v>43370</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C18" r:id="rId1" location="/Organization/CarrierAccountLines/fd337dd7-314a-479a-99e4-f1028145150d/View?carrierAccountId=5b8cf7f2-3a6d-4206-b6a3-7c86b747be81&amp;customerId=3a0999c2-b735-48e4-bf79-a6374bcc7047" display="/Organization/CarrierAccountLines/fd337dd7-314a-479a-99e4-f1028145150d/View?carrierAccountId=5b8cf7f2-3a6d-4206-b6a3-7c86b747be81&amp;customerId=3a0999c2-b735-48e4-bf79-a6374bcc7047"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>